--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Epha3</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H2">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I2">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J2">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>0.348363220338</v>
+        <v>0.270626465226</v>
       </c>
       <c r="R2">
-        <v>3.135268983042</v>
+        <v>2.435638187034</v>
       </c>
       <c r="S2">
-        <v>0.01097346825143981</v>
+        <v>0.009657498914078501</v>
       </c>
       <c r="T2">
-        <v>0.01097346825143981</v>
+        <v>0.009657498914078503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H3">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I3">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J3">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>18.65702156593866</v>
+        <v>14.34054311068311</v>
       </c>
       <c r="R3">
-        <v>167.913194093448</v>
+        <v>129.064887996148</v>
       </c>
       <c r="S3">
-        <v>0.5876976152121168</v>
+        <v>0.5117525346350069</v>
       </c>
       <c r="T3">
-        <v>0.5876976152121167</v>
+        <v>0.511752534635007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H4">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I4">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J4">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>0.2079064327426667</v>
+        <v>0.2715198120064445</v>
       </c>
       <c r="R4">
-        <v>1.871157894684</v>
+        <v>2.443678308058</v>
       </c>
       <c r="S4">
-        <v>0.006549068632326266</v>
+        <v>0.009689378632696683</v>
       </c>
       <c r="T4">
-        <v>0.006549068632326263</v>
+        <v>0.009689378632696683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2420556666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.726167</v>
+      </c>
+      <c r="I5">
+        <v>0.5314769098578004</v>
+      </c>
+      <c r="J5">
+        <v>0.5314769098578004</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.2054156666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.616247</v>
-      </c>
-      <c r="I5">
-        <v>0.3947798479041172</v>
-      </c>
-      <c r="J5">
-        <v>0.3947798479041172</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>0.227234302533</v>
+        <v>0.01057839742988889</v>
       </c>
       <c r="R5">
-        <v>2.045108722797</v>
+        <v>0.095205576869</v>
       </c>
       <c r="S5">
-        <v>0.007157898018236754</v>
+        <v>0.0003774976760182279</v>
       </c>
       <c r="T5">
-        <v>0.007157898018236753</v>
+        <v>0.0003774976760182279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,40 +791,40 @@
         <v>0.616247</v>
       </c>
       <c r="I6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>12.16981310129644</v>
+        <v>0.229661699466</v>
       </c>
       <c r="R6">
-        <v>109.528317911668</v>
+        <v>2.066955295194</v>
       </c>
       <c r="S6">
-        <v>0.3833500493061824</v>
+        <v>0.008195641957434219</v>
       </c>
       <c r="T6">
-        <v>0.3833500493061823</v>
+        <v>0.00819564195743422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,10 +853,10 @@
         <v>0.616247</v>
       </c>
       <c r="I7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>0.1356155600771111</v>
+        <v>12.16981310129644</v>
       </c>
       <c r="R7">
-        <v>1.220540040694</v>
+        <v>109.528317911668</v>
       </c>
       <c r="S7">
-        <v>0.004271900579698123</v>
+        <v>0.4342884821414622</v>
       </c>
       <c r="T7">
-        <v>0.004271900579698121</v>
+        <v>0.4342884821414622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2054156666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.616247</v>
+      </c>
+      <c r="I8">
+        <v>0.4510271759376837</v>
+      </c>
+      <c r="J8">
+        <v>0.4510271759376837</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.365174</v>
+      </c>
+      <c r="O8">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P8">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q8">
+        <v>0.2304198202197778</v>
+      </c>
+      <c r="R8">
+        <v>2.073778381978</v>
+      </c>
+      <c r="S8">
+        <v>0.00822269603860191</v>
+      </c>
+      <c r="T8">
+        <v>0.00822269603860191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2054156666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.616247</v>
+      </c>
+      <c r="I9">
+        <v>0.4510271759376837</v>
+      </c>
+      <c r="J9">
+        <v>0.4510271759376837</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.131107</v>
+      </c>
+      <c r="O9">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P9">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q9">
+        <v>0.008977143936555555</v>
+      </c>
+      <c r="R9">
+        <v>0.080794295429</v>
+      </c>
+      <c r="S9">
+        <v>0.0003203558001853635</v>
+      </c>
+      <c r="T9">
+        <v>0.0003203558001853635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.023905</v>
+      </c>
+      <c r="I10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.118034</v>
+      </c>
+      <c r="N10">
+        <v>3.354102</v>
+      </c>
+      <c r="O10">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P10">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q10">
+        <v>0.008908867589999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08017980831</v>
+      </c>
+      <c r="S10">
+        <v>0.0003179193099397887</v>
+      </c>
+      <c r="T10">
+        <v>0.0003179193099397887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H11">
+        <v>0.023905</v>
+      </c>
+      <c r="I11">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J11">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N11">
+        <v>177.734444</v>
+      </c>
+      <c r="O11">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P11">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q11">
+        <v>0.4720824315355555</v>
+      </c>
+      <c r="R11">
+        <v>4.24874188382</v>
+      </c>
+      <c r="S11">
+        <v>0.0168465991162499</v>
+      </c>
+      <c r="T11">
+        <v>0.0168465991162499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H12">
+        <v>0.023905</v>
+      </c>
+      <c r="I12">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J12">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.365174</v>
+      </c>
+      <c r="O12">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P12">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q12">
+        <v>0.008938276052222222</v>
+      </c>
+      <c r="R12">
+        <v>0.08044448446999999</v>
+      </c>
+      <c r="S12">
+        <v>0.0003189687719417354</v>
+      </c>
+      <c r="T12">
+        <v>0.0003189687719417354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H13">
+        <v>0.023905</v>
+      </c>
+      <c r="I13">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J13">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.131107</v>
+      </c>
+      <c r="O13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q13">
+        <v>0.0003482347594444445</v>
+      </c>
+      <c r="R13">
+        <v>0.003134112835</v>
+      </c>
+      <c r="S13">
+        <v>1.242700638450348E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.242700638450348E-05</v>
       </c>
     </row>
   </sheetData>
